--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView windowWidth="27825" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,15 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$1:$C$38</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="155">
   <si>
     <t>日期</t>
   </si>
@@ -88,7 +91,7 @@
     <t>2019.12.31</t>
   </si>
   <si>
-    <t>中国</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>湖北</t>
@@ -277,7 +280,13 @@
     <t>https://m.weibo.cn/status/4463235401268457?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102</t>
   </si>
   <si>
-    <t>除武汉外</t>
+    <t>黄冈</t>
+  </si>
+  <si>
+    <t>湖北卫生健康委</t>
+  </si>
+  <si>
+    <t>http://wjw.hubei.gov.cn/fbjd/tzgg/202001/t20200121_2013873.shtml</t>
   </si>
   <si>
     <t>国家卫生健康委</t>
@@ -307,6 +316,111 @@
     <t>http://wsjkw.cq.gov.cn/tzgg/20200121/249730.html</t>
   </si>
   <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>微博－央视新闻</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/status/4463300522087848?display=0&amp;retcode=6102</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/status/4463300077514459?display=0&amp;retcode=6102</t>
+  </si>
+  <si>
+    <t>北京市卫生健康委员会</t>
+  </si>
+  <si>
+    <t>http://wjw.beijing.gov.cn/xwzx_20031/wnxw/202001/t20200121_1620353.html</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>青岛</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/status/4463323540564718?display=0&amp;retcode=6102</t>
+  </si>
+  <si>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>昆明</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/status/4463321081961974?display=0&amp;retcode=6102</t>
+  </si>
+  <si>
+    <t>湖南</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>湖南卫健委</t>
+  </si>
+  <si>
+    <t>http://wjw.hunan.gov.cn/wjw/xxgk/gzdt/zyxw_1/202001/t20200122_11162942.html</t>
+  </si>
+  <si>
+    <t>广安</t>
+  </si>
+  <si>
+    <t>https://weibo.com/2656274875/IqzRU3150?from=page_1002062656274875_profile&amp;wvr=6&amp;mod=weibotime&amp;sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102&amp;type=comment#_rnd1579680134869</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>抚州</t>
+  </si>
+  <si>
+    <t>https://weibo.com/2656274875/IqAcyp3Jr?from=page_1002062656274875_profile&amp;wvr=6&amp;mod=weibotime&amp;type=comment#_rnd1579680422581</t>
+  </si>
+  <si>
+    <t>上海卫健委</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/0DW5LLu6AVZK_qMW6ypgHQ</t>
+  </si>
+  <si>
+    <t>2020.01.22</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/status/4463510434284981?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/status/4463511738486595?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>韶关</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/status/4463540671056698?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102</t>
+  </si>
+  <si>
+    <t>海南</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>https://weibo.com/2656274875/IqFIDEm8X?ref=home&amp;rid=0_0_8_3071520091955001893_0_0_0&amp;type=comment#_rnd1579682384110</t>
+  </si>
+  <si>
     <t>中国台湾</t>
   </si>
   <si>
@@ -361,7 +475,16 @@
     <t>https://www.wsj.com/articles/china-coronavirus-kills-third-person-spreads-to-more-cities-11579494221</t>
   </si>
   <si>
-    <t>﻿</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>华盛顿州</t>
+  </si>
+  <si>
+    <t>https://weibo.com/2656274875/IqAGbbtmh?from=page_1002062656274875_profile&amp;wvr=6&amp;mod=weibotime&amp;type=comment#_rnd1579680564686</t>
+  </si>
+  <si>
+    <t>https://www.weibo.com/2656274875/IqEwEpvsJ?ref=home&amp;rid=3_536870912_8_4726744129282722366_0_0_0&amp;type=comment#_rnd1579681341535</t>
   </si>
 </sst>
 </file>
@@ -405,15 +528,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -422,13 +538,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,6 +553,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -452,7 +569,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,29 +611,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -512,14 +636,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -527,7 +643,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,7 +701,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +719,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,25 +797,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,49 +839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,13 +857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,49 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,6 +892,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -787,26 +934,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,7 +968,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,21 +978,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,142 +997,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,7 +1142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1073,9 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1434,13 +1554,14 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7333333333333" style="1" customWidth="1"/>
-    <col min="2" max="3" width="7.19047619047619" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.19047619047619" style="1" customWidth="1"/>
     <col min="4" max="5" width="5.37142857142857" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.14285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.5428571428571" style="1" customWidth="1"/>
@@ -1487,7 +1608,7 @@
       <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1704,7 +1825,7 @@
       <c r="N6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="18">
         <v>4</v>
       </c>
       <c r="P6" s="1">
@@ -1754,7 +1875,7 @@
       <c r="N7" s="1">
         <v>1</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="18">
         <v>1</v>
       </c>
       <c r="P7" s="1">
@@ -1904,7 +2025,7 @@
       <c r="N10" s="1">
         <v>2</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="18">
         <v>5</v>
       </c>
       <c r="P10" s="1">
@@ -1954,7 +2075,7 @@
       <c r="N11" s="1">
         <v>2</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="18">
         <v>3</v>
       </c>
       <c r="P11" s="1">
@@ -2004,7 +2125,7 @@
       <c r="N12" s="1">
         <v>2</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="18">
         <v>4</v>
       </c>
       <c r="P12" s="1">
@@ -2045,13 +2166,13 @@
       <c r="F13" s="5">
         <v>59</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="19">
         <v>1</v>
       </c>
       <c r="N13" s="1">
         <v>3</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="18">
         <v>5</v>
       </c>
       <c r="U13" s="1" t="s">
@@ -2092,13 +2213,13 @@
       <c r="L14" s="1">
         <v>9</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <v>1</v>
       </c>
       <c r="N14" s="1">
         <v>4</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="18">
         <v>1</v>
       </c>
       <c r="P14" s="1">
@@ -2183,7 +2304,7 @@
       <c r="L16" s="1">
         <v>12</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="19">
         <v>2</v>
       </c>
       <c r="N16" s="1">
@@ -2239,16 +2360,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7333333333333" style="1" customWidth="1"/>
-    <col min="2" max="3" width="7.19047619047619" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.14285714285714" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5714285714286" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.85714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.28571428571429" style="1" customWidth="1"/>
@@ -2342,7 +2464,7 @@
       <c r="A2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2379,7 +2501,7 @@
       <c r="A3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -2416,7 +2538,7 @@
       <c r="A4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -2453,7 +2575,7 @@
       <c r="A5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -2490,7 +2612,7 @@
       <c r="A6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -2527,7 +2649,7 @@
       <c r="A7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -2564,7 +2686,7 @@
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -2601,7 +2723,7 @@
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -2638,7 +2760,7 @@
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -2675,7 +2797,7 @@
       <c r="A11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -2712,7 +2834,7 @@
       <c r="A12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -2749,7 +2871,7 @@
       <c r="A13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -2786,7 +2908,7 @@
       <c r="A14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2801,7 +2923,7 @@
       <c r="U14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V14" s="8" t="s">
+      <c r="V14" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2809,7 +2931,7 @@
       <c r="A15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2846,7 +2968,7 @@
       <c r="A16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -2883,7 +3005,7 @@
       <c r="A17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -2910,33 +3032,33 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -2947,22 +3069,462 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F19" s="5">
         <v>5</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="5">
+        <v>3</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V33" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="5">
+        <v>4</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V36" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="5">
+        <v>4</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V38" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C38">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="V3" r:id="rId1" display="https://www.weibo.com/2703012010/IqhwfsbDU?from=page_1001062703012010_profile&amp;wvr=6&amp;mod=weibotime&amp;type=comment" tooltip="https://www.weibo.com/2703012010/IqhwfsbDU?from=page_1001062703012010_profile&amp;wvr=6&amp;mod=weibotime&amp;type=comment"/>
     <hyperlink ref="V4" r:id="rId2" display="https://www.weibo.com/2372649470/IqogQhgfa?from=page_1001062372649470_profile&amp;wvr=6&amp;mod=weibotime&amp;type=comment"/>
@@ -2975,12 +3537,31 @@
     <hyperlink ref="V11" r:id="rId4" display="https://mp.weixin.qq.com/s/rQalqPahvPjdOw6uA1gRuA"/>
     <hyperlink ref="V12" r:id="rId4" display="https://mp.weixin.qq.com/s/rQalqPahvPjdOw6uA1gRuA"/>
     <hyperlink ref="V13" r:id="rId5" display="https://m.weibo.cn/status/4463235401268457?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102"/>
-    <hyperlink ref="V14" r:id="rId6" display="http://www.nhc.gov.cn/yjb/s3578/202001/930c021cdd1f46dc832fc27e0cc465c8.shtml"/>
+    <hyperlink ref="V14" r:id="rId6" display="http://wjw.hubei.gov.cn/fbjd/tzgg/202001/t20200121_2013873.shtml" tooltip="http://wjw.hubei.gov.cn/fbjd/tzgg/202001/t20200121_2013873.shtml"/>
     <hyperlink ref="V15" r:id="rId2" display="https://www.weibo.com/2372649470/IqogQhgfa?from=page_1001062372649470_profile&amp;wvr=6&amp;mod=weibotime&amp;type=comment"/>
     <hyperlink ref="V16" r:id="rId2" display="https://www.weibo.com/2372649470/IqogQhgfa?from=page_1001062372649470_profile&amp;wvr=6&amp;mod=weibotime&amp;type=comment"/>
-    <hyperlink ref="V17" r:id="rId6" display="http://www.nhc.gov.cn/yjb/s3578/202001/930c021cdd1f46dc832fc27e0cc465c8.shtml" tooltip="http://www.nhc.gov.cn/yjb/s3578/202001/930c021cdd1f46dc832fc27e0cc465c8.shtml"/>
-    <hyperlink ref="V18" r:id="rId7" display="https://m.weibo.cn/status/4463253101247810?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102"/>
-    <hyperlink ref="V19" r:id="rId8" display="http://wsjkw.cq.gov.cn/tzgg/20200121/249730.html"/>
+    <hyperlink ref="V17" r:id="rId7" display="http://www.nhc.gov.cn/yjb/s3578/202001/930c021cdd1f46dc832fc27e0cc465c8.shtml" tooltip="http://www.nhc.gov.cn/yjb/s3578/202001/930c021cdd1f46dc832fc27e0cc465c8.shtml"/>
+    <hyperlink ref="V18" r:id="rId8" display="https://m.weibo.cn/status/4463253101247810?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102"/>
+    <hyperlink ref="V19" r:id="rId9" display="http://wsjkw.cq.gov.cn/tzgg/20200121/249730.html"/>
+    <hyperlink ref="V20" r:id="rId10" display="https://m.weibo.cn/status/4463300522087848?display=0&amp;retcode=6102"/>
+    <hyperlink ref="V21" r:id="rId11" display="https://m.weibo.cn/status/4463300077514459?display=0&amp;retcode=6102"/>
+    <hyperlink ref="V22" r:id="rId11" display="https://m.weibo.cn/status/4463300077514459?display=0&amp;retcode=6102"/>
+    <hyperlink ref="V23" r:id="rId11" display="https://m.weibo.cn/status/4463300077514459?display=0&amp;retcode=6102"/>
+    <hyperlink ref="V24" r:id="rId12" display="http://wjw.beijing.gov.cn/xwzx_20031/wnxw/202001/t20200121_1620353.html"/>
+    <hyperlink ref="V25" r:id="rId13" display="https://m.weibo.cn/status/4463323540564718?display=0&amp;retcode=6102"/>
+    <hyperlink ref="V26" r:id="rId14" display="https://m.weibo.cn/status/4463321081961974?display=0&amp;retcode=6102"/>
+    <hyperlink ref="V27" r:id="rId15" display="http://wjw.hunan.gov.cn/wjw/xxgk/gzdt/zyxw_1/202001/t20200122_11162942.html"/>
+    <hyperlink ref="V28" r:id="rId16" display="https://weibo.com/2656274875/IqzRU3150?from=page_1002062656274875_profile&amp;wvr=6&amp;mod=weibotime&amp;sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102&amp;type=comment#_rnd1579680134869"/>
+    <hyperlink ref="V29" r:id="rId17" display="https://weibo.com/2656274875/IqAcyp3Jr?from=page_1002062656274875_profile&amp;wvr=6&amp;mod=weibotime&amp;type=comment#_rnd1579680422581"/>
+    <hyperlink ref="V30" r:id="rId18" display="https://mp.weixin.qq.com/s/0DW5LLu6AVZK_qMW6ypgHQ"/>
+    <hyperlink ref="V31" r:id="rId19" display="https://m.weibo.cn/status/4463510434284981?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102"/>
+    <hyperlink ref="V32" r:id="rId19" display="https://m.weibo.cn/status/4463510434284981?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102"/>
+    <hyperlink ref="V36" r:id="rId20" display="https://m.weibo.cn/status/4463511738486595?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102"/>
+    <hyperlink ref="V33" r:id="rId20" display="https://m.weibo.cn/status/4463511738486595?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102" tooltip="https://m.weibo.cn/status/4463511738486595?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102"/>
+    <hyperlink ref="V34" r:id="rId20" display="https://m.weibo.cn/status/4463511738486595?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102"/>
+    <hyperlink ref="V35" r:id="rId20" display="https://m.weibo.cn/status/4463511738486595?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102"/>
+    <hyperlink ref="V37" r:id="rId21" display="https://m.weibo.cn/status/4463540671056698?sudaref=3g.dxy.cn&amp;display=0&amp;retcode=6102"/>
+    <hyperlink ref="V38" r:id="rId22" display="https://weibo.com/2656274875/IqFIDEm8X?ref=home&amp;rid=0_0_8_3071520091955001893_0_0_0&amp;type=comment#_rnd1579682384110"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3096,7 +3677,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -3122,7 +3703,7 @@
         <v>84</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:22">
@@ -3621,13 +4202,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="12.7904761904762" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -3663,7 +4244,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
@@ -3716,19 +4297,19 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="W2" s="7"/>
     </row>
@@ -3737,10 +4318,10 @@
         <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -3749,13 +4330,13 @@
         <v>1</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -3763,7 +4344,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -3772,10 +4353,10 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -3783,27 +4364,62 @@
         <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="22:22">
-      <c r="V9" s="1" t="s">
-        <v>114</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3815,6 +4431,8 @@
     <hyperlink ref="V3" r:id="rId4" display="https://news.un.org/zh/story/2020/01/1049342" tooltip="https://news.un.org/zh/story/2020/01/1049342"/>
     <hyperlink ref="V5" r:id="rId5" display="https://cn.yna.co.kr/view/ACK20200120002600881?section=search"/>
     <hyperlink ref="W5" r:id="rId6" display="https://www.wsj.com/articles/china-coronavirus-kills-third-person-spreads-to-more-cities-11579494221"/>
+    <hyperlink ref="V6" r:id="rId7" display="https://weibo.com/2656274875/IqAGbbtmh?from=page_1002062656274875_profile&amp;wvr=6&amp;mod=weibotime&amp;type=comment#_rnd1579680564686"/>
+    <hyperlink ref="V7" r:id="rId8" display="https://www.weibo.com/2656274875/IqEwEpvsJ?ref=home&amp;rid=3_536870912_8_4726744129282722366_0_0_0&amp;type=comment#_rnd1579681341535"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
